--- a/Advanced_Fitness_Members_India.xlsx
+++ b/Advanced_Fitness_Members_India.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7b6fa3d2480fc23/Desktop/PWSkills/Excel/Module 3/Excel Assignment 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etern\OneDrive\Desktop\PWSkills\Excel\Module 3\Excel Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="493" documentId="11_A64F011CBB1A899A1320FD2987F7E085CFE4047B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A34D613-8CF2-4741-A16B-5DA5079152B7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190A99CD-01B8-44ED-B65C-7AE794BEA273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,10 @@
   </definedNames>
   <calcPr calcId="191029" iterateCount="2" iterateDelta="2"/>
   <pivotCaches>
-    <pivotCache cacheId="51" r:id="rId7"/>
-    <pivotCache cacheId="56" r:id="rId8"/>
-    <pivotCache cacheId="60" r:id="rId9"/>
-    <pivotCache cacheId="90" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="2" r:id="rId9"/>
+    <pivotCache cacheId="3" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="144">
   <si>
     <t>Full_Name</t>
   </si>
@@ -441,6 +441,57 @@
   </si>
   <si>
     <t>Average Monthly Fee</t>
+  </si>
+  <si>
+    <t>Solution 1-&gt;</t>
+  </si>
+  <si>
+    <t>Solution 2-&gt;</t>
+  </si>
+  <si>
+    <t>Added a column Referred and used formula IF(K2&lt;&gt;"","Yes","No") to find if a member is referred or not.</t>
+  </si>
+  <si>
+    <t>Then created a pivot table in PivotTableAverageMonthlyFee sheet to  compare average Monthly_Fee for referred vs. non-referred members.</t>
+  </si>
+  <si>
+    <t>Solution 3-&gt;</t>
+  </si>
+  <si>
+    <t>Added a column Total_Revenue and used formula H2*L2 to find the total revenue.</t>
+  </si>
+  <si>
+    <t>Then created a pivot table in sheet PivotTableCityMembershipType to calculate the total revenue earned from Premium members and Family memberships along with city-wise breakdown.</t>
+  </si>
+  <si>
+    <t>Created a new rule using formula AND(I2&lt;8,L2&gt;=6) in Conditional Formatting to flag members having Attendance&lt;8 and Membership_Duration_Months&gt;=6.</t>
+  </si>
+  <si>
+    <t>Solution 4-&gt;</t>
+  </si>
+  <si>
+    <t>Solution 5-&gt;</t>
+  </si>
+  <si>
+    <t>Also added a pivot chart for easy visualisation of the same so that it can be decided where should PowerFit focus its marketing or referral programs.</t>
+  </si>
+  <si>
+    <t>Created a pivot table in sheet CityGenderWiseMemberCount to show gender-wise count of members per city.</t>
+  </si>
+  <si>
+    <t>Added a column Membership_Duration_Months and used ROUNDDOWN((G2-F2)/30,0) formula to calculate how many full months a member has been active.</t>
+  </si>
+  <si>
+    <t>Solution 6-&gt;</t>
+  </si>
+  <si>
+    <t>Created a pivot table in sheet  SegmentProfitabilityDashboard displaying both average revenue per member across different segments of  City+Membership Type+Referral as well as total revenue showing which combination is most profitable.</t>
+  </si>
+  <si>
+    <t>Also slicers have been added for all City, Membership Type, Referral for easy filtering in pivot table and pivot chart.</t>
+  </si>
+  <si>
+    <t>Also created a pivot table in sheet MembershipTypeAgeDistribution to show age distribution across different membership types. For creating this pivot table, a new column Age_Group was created and using formula IF(AND(C2&gt;=18,C2&lt;=30),"Youth",IF(AND(C2&gt;=31,C2&lt;=45),"Adults",IF(C2&gt;=46,"Seniors"))) members were divided in different age groups according to their age.</t>
   </si>
 </sst>
 </file>
@@ -450,11 +501,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -480,6 +538,14 @@
     <font>
       <sz val="11"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -532,18 +598,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -551,19 +616,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="878">
+  <dxfs count="57">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="3"/>
@@ -573,13 +647,6 @@
       <font>
         <color theme="3"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -959,5753 +1026,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -6809,7 +1129,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6856,49 +1176,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -6930,7 +1208,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -6983,49 +1260,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -7057,7 +1292,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -7788,7 +2022,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-IN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8602,8 +2836,8 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Membership_Type">
@@ -8626,7 +2860,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8680,8 +2914,8 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>27365</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="City">
@@ -8704,7 +2938,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8758,8 +2992,8 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>1663</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="Referred">
@@ -8782,7 +3016,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8860,10 +3094,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11352,7 +5582,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4767EEDE-A373-48F6-914E-999F907C4D2F}" name="PivotTable1" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Referred">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4767EEDE-A373-48F6-914E-999F907C4D2F}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Referred">
   <location ref="B3:C6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -11407,7 +5637,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A7145BFE-7A7C-4C66-A8C7-9E42235E7BE9}" name="PivotTable2" cacheId="56" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A7145BFE-7A7C-4C66-A8C7-9E42235E7BE9}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:C16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -11506,7 +5736,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{416E628C-7841-4B06-B13C-41F28121C991}" name="PivotTable21" cacheId="90" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{416E628C-7841-4B06-B13C-41F28121C991}" name="PivotTable21" cacheId="3" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="37">
   <location ref="B2:D51" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -11764,10 +5994,10 @@
     <dataField name="Average Revenue" fld="13" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="56">
-    <format dxfId="2">
+    <format dxfId="56">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="55">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="9" count="1" selected="0">
@@ -11779,7 +6009,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="54">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="2">
@@ -11795,7 +6025,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="53">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="9" count="1" selected="0">
@@ -11807,7 +6037,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="52">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="3">
@@ -11824,7 +6054,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="51">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -11833,7 +6063,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="50">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="9" count="1" selected="0">
@@ -11845,7 +6075,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="49">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="3">
@@ -11862,7 +6092,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="48">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="9" count="1" selected="0">
@@ -11874,7 +6104,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="47">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="1">
@@ -11889,7 +6119,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="46">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -11898,7 +6128,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="45">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="9" count="1" selected="0">
@@ -11910,7 +6140,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="44">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="3">
@@ -11927,7 +6157,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="43">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="9" count="1" selected="0">
@@ -11939,7 +6169,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="42">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="1">
@@ -11954,7 +6184,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="41">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -11963,7 +6193,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="40">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="9" count="1" selected="0">
@@ -11975,7 +6205,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="39">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="2">
@@ -11991,7 +6221,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="38">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="9" count="1" selected="0">
@@ -12003,7 +6233,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="37">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="3">
@@ -12020,7 +6250,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="36">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -12029,7 +6259,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="35">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="9" count="1" selected="0">
@@ -12041,7 +6271,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="34">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="0"/>
@@ -12054,7 +6284,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="33">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="9" count="1" selected="0">
@@ -12066,7 +6296,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="32">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="0"/>
@@ -12079,7 +6309,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="31">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -12088,7 +6318,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="30">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="9" count="1" selected="0">
@@ -12116,7 +6346,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="28">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="9" count="1" selected="0">
@@ -12128,7 +6358,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="27">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="2">
@@ -12144,23 +6374,23 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="26">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="25">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="9" count="1" selected="0">
@@ -12170,7 +6400,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="9" count="1" selected="0">
@@ -12180,7 +6410,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="9" count="1" selected="0">
@@ -12190,7 +6420,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="9" count="1" selected="0">
@@ -12200,7 +6430,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="9" count="1" selected="0">
@@ -12210,7 +6440,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="9" count="1" selected="0">
@@ -12220,7 +6450,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="2">
@@ -12236,7 +6466,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="3">
@@ -12253,7 +6483,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="3">
@@ -12270,7 +6500,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="1">
@@ -12285,7 +6515,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="3">
@@ -12302,7 +6532,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="1">
@@ -12317,7 +6547,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="2">
@@ -12333,7 +6563,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="3">
@@ -12350,7 +6580,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="0"/>
@@ -12363,7 +6593,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="0"/>
@@ -12376,7 +6606,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="2">
@@ -12392,7 +6622,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="2">
@@ -12408,10 +6638,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="4">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -12421,10 +6651,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="2">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -13548,7 +7778,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7186DD2A-581F-4C66-B74A-5DD2265BB1BB}" name="PivotTable17" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Cities" colHeaderCaption="Genders">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7186DD2A-581F-4C66-B74A-5DD2265BB1BB}" name="PivotTable17" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Cities" colHeaderCaption="Genders">
   <location ref="B3:E11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -13638,7 +7868,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ACC0409D-5BCC-4D16-AEF6-4F08CB717E87}" name="PivotTable20" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Age Groups" colHeaderCaption="Membership Types">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ACC0409D-5BCC-4D16-AEF6-4F08CB717E87}" name="PivotTable20" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Age Groups" colHeaderCaption="Membership Types">
   <location ref="B3:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -13987,8 +8217,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14097,11 +8327,11 @@
         <v>6</v>
       </c>
       <c r="M2" s="2" t="str">
-        <f t="shared" ref="M2:M36" si="0">IF(K2&lt;&gt;"","Yes","No")</f>
+        <f>IF(K2&lt;&gt;"","Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N36" si="1">H2*L2</f>
+        <f>H2*L2</f>
         <v>4800</v>
       </c>
       <c r="O2" s="2" t="str">
@@ -14144,15 +8374,15 @@
         <v>19</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L36" si="2">ROUNDDOWN((G3-F3)/30,0)</f>
+        <f t="shared" ref="L3:L36" si="0">ROUNDDOWN((G3-F3)/30,0)</f>
         <v>0</v>
       </c>
       <c r="M3" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M2:M36" si="1">IF(K3&lt;&gt;"","Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="N3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N2:N36" si="2">H3*L3</f>
         <v>0</v>
       </c>
       <c r="O3" s="2" t="str">
@@ -14195,15 +8425,15 @@
         <v>24</v>
       </c>
       <c r="L4" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="N4">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="M4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="1"/>
         <v>7200</v>
       </c>
       <c r="O4" s="2" t="str">
@@ -14246,15 +8476,15 @@
         <v>28</v>
       </c>
       <c r="L5" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="N5">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="M5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="1"/>
         <v>3600</v>
       </c>
       <c r="O5" s="2" t="str">
@@ -14297,15 +8527,15 @@
         <v>32</v>
       </c>
       <c r="L6" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="M6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="1"/>
         <v>17500</v>
       </c>
       <c r="O6" s="2" t="str">
@@ -14348,15 +8578,15 @@
         <v>36</v>
       </c>
       <c r="L7" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="1"/>
         <v>1600</v>
       </c>
       <c r="O7" s="2" t="str">
@@ -14396,15 +8626,15 @@
         <v>18</v>
       </c>
       <c r="L8" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="1"/>
         <v>1600</v>
       </c>
       <c r="O8" s="2" t="str">
@@ -14444,15 +8674,15 @@
         <v>42</v>
       </c>
       <c r="L9" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="M9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="1"/>
         <v>5400</v>
       </c>
       <c r="O9" s="2" t="str">
@@ -14495,15 +8725,15 @@
         <v>45</v>
       </c>
       <c r="L10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O10" s="2" t="str">
@@ -14546,15 +8776,15 @@
         <v>48</v>
       </c>
       <c r="L11" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="1"/>
         <v>2400</v>
       </c>
       <c r="O11" s="2" t="str">
@@ -14597,15 +8827,15 @@
         <v>51</v>
       </c>
       <c r="L12" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="M12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
       <c r="O12" s="2" t="str">
@@ -14648,15 +8878,15 @@
         <v>54</v>
       </c>
       <c r="L13" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="M13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="1"/>
         <v>15600</v>
       </c>
       <c r="O13" s="2" t="str">
@@ -14696,15 +8926,15 @@
         <v>42</v>
       </c>
       <c r="L14" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="1"/>
         <v>3600</v>
       </c>
       <c r="O14" s="2" t="str">
@@ -14744,15 +8974,15 @@
         <v>35</v>
       </c>
       <c r="L15" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="M15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
       <c r="O15" s="2" t="str">
@@ -14792,15 +9022,15 @@
         <v>23</v>
       </c>
       <c r="L16" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="N16">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="M16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="1"/>
         <v>4800</v>
       </c>
       <c r="O16" s="2" t="str">
@@ -14840,15 +9070,15 @@
         <v>42</v>
       </c>
       <c r="L17" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="N17">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
       <c r="O17" s="2" t="str">
@@ -14888,15 +9118,15 @@
         <v>23</v>
       </c>
       <c r="L18" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="N18">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="M18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="1"/>
         <v>13200</v>
       </c>
       <c r="O18" s="2" t="str">
@@ -14936,15 +9166,15 @@
         <v>67</v>
       </c>
       <c r="L19" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="M19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="N19">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="M19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="1"/>
         <v>35000</v>
       </c>
       <c r="O19" s="2" t="str">
@@ -14984,15 +9214,15 @@
         <v>35</v>
       </c>
       <c r="L20" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="N20">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="M20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="1"/>
         <v>8000</v>
       </c>
       <c r="O20" s="2" t="str">
@@ -15035,15 +9265,15 @@
         <v>72</v>
       </c>
       <c r="L21" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="N21">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="M21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="O21" s="2" t="str">
@@ -15083,15 +9313,15 @@
         <v>35</v>
       </c>
       <c r="L22" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="M22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="N22">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="M22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="1"/>
         <v>30600</v>
       </c>
       <c r="O22" s="2" t="str">
@@ -15131,15 +9361,15 @@
         <v>14</v>
       </c>
       <c r="L23" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="N23">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="M23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="1"/>
         <v>16200</v>
       </c>
       <c r="O23" s="2" t="str">
@@ -15179,15 +9409,15 @@
         <v>67</v>
       </c>
       <c r="L24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="N24">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O24" s="2" t="str">
@@ -15227,15 +9457,15 @@
         <v>14</v>
       </c>
       <c r="L25" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="N25">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="M25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="1"/>
         <v>10800</v>
       </c>
       <c r="O25" s="2" t="str">
@@ -15278,15 +9508,15 @@
         <v>83</v>
       </c>
       <c r="L26" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="1"/>
         <v>3600</v>
       </c>
       <c r="O26" s="2" t="str">
@@ -15326,15 +9556,15 @@
         <v>67</v>
       </c>
       <c r="L27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O27" s="2" t="str">
@@ -15374,15 +9604,15 @@
         <v>35</v>
       </c>
       <c r="L28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="N28">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O28" s="2" t="str">
@@ -15422,15 +9652,15 @@
         <v>18</v>
       </c>
       <c r="L29" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="N29">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="1"/>
         <v>1200</v>
       </c>
       <c r="O29" s="2" t="str">
@@ -15470,15 +9700,15 @@
         <v>23</v>
       </c>
       <c r="L30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="N30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O30" s="2" t="str">
@@ -15521,15 +9751,15 @@
         <v>94</v>
       </c>
       <c r="L31" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="N31">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="O31" s="2" t="str">
@@ -15572,15 +9802,15 @@
         <v>97</v>
       </c>
       <c r="L32" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="M32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="N32">
         <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="M32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="1"/>
         <v>14400</v>
       </c>
       <c r="O32" s="2" t="str">
@@ -15620,15 +9850,15 @@
         <v>35</v>
       </c>
       <c r="L33" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M33" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="M33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="1"/>
         <v>8400</v>
       </c>
       <c r="O33" s="2" t="str">
@@ -15668,15 +9898,15 @@
         <v>35</v>
       </c>
       <c r="L34" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M34" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="N34">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="1"/>
         <v>800</v>
       </c>
       <c r="O34" s="2" t="str">
@@ -15719,15 +9949,15 @@
         <v>104</v>
       </c>
       <c r="L35" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M35" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="N35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="M35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="1"/>
         <v>7200</v>
       </c>
       <c r="O35" s="2" t="str">
@@ -15767,15 +9997,15 @@
         <v>18</v>
       </c>
       <c r="L36" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="N36">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="M36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="1"/>
         <v>13200</v>
       </c>
       <c r="O36" s="2" t="str">
@@ -15784,33 +10014,101 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16748,13 +11046,8 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <conditionalFormatting sqref="A2:N36">
-    <cfRule type="expression" dxfId="868" priority="3">
-      <formula>AND($I2&lt;8, $L2&gt;=6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O36">
-    <cfRule type="expression" dxfId="866" priority="1">
+  <conditionalFormatting sqref="A2:O36 A39">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($I2&lt;8, $L2&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16769,7 +11062,16 @@
   <dimension ref="B3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
+      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisRow" max="3" activeRow="3" activeCol="1" previousRow="3" previousCol="1" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" fieldPosition="0">
+          <references count="1">
+            <reference field="11" count="1">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16790,7 +11092,7 @@
       <c r="B4" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4">
         <v>1530</v>
       </c>
     </row>
@@ -16798,7 +11100,7 @@
       <c r="B5" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>1406.6666666666667</v>
       </c>
     </row>
@@ -16806,7 +11108,7 @@
       <c r="B6" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>1477.1428571428571</v>
       </c>
     </row>
@@ -16842,47 +11144,47 @@
       <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4">
         <v>75000</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>17500</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>35000</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>7500</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>15000</v>
       </c>
     </row>
@@ -16890,47 +11192,47 @@
       <c r="B10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>66600</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11">
         <v>16200</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13">
         <v>9000</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14">
         <v>34200</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15">
         <v>7200</v>
       </c>
     </row>
@@ -16938,7 +11240,7 @@
       <c r="B16" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16">
         <v>141600</v>
       </c>
     </row>
@@ -16958,604 +11260,604 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="8"/>
-    <col min="2" max="2" width="19.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.08984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="8.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="8.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="6.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="5.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="52" max="16384" width="8.7265625" style="8"/>
+    <col min="1" max="1" width="8.7265625" style="7"/>
+    <col min="2" max="2" width="19.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="8.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="8.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="6.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="52" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>49400</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>12350</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>35000</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>11666.666666666666</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>35000</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>35000</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>0</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>0</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>14400</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>14400</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>14400</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>14400</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>55300</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>11060</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>28300</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>9433.3333333333339</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>4800</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>4800</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>17500</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>17500</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>6000</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>6000</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>27000</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>13500</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>16200</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>16200</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>10800</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>10800</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>76400</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>7640</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>53800</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>8966.6666666666661</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>8800</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>4400</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>0</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>30600</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>30600</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>14400</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>7200</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>22600</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>5650</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="9">
         <v>1600</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>1600</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="9">
         <v>15000</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>15000</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="9">
         <v>3600</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>3600</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="9">
         <v>2400</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>2400</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="9">
         <v>28800</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <v>5760</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="9">
         <v>18000</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <v>6000</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="9">
         <v>4800</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="9">
         <v>4800</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="9">
         <v>0</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="9">
         <v>13200</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="9">
         <v>13200</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="9">
         <v>10800</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="9">
         <v>5400</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="9">
         <v>10800</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="9">
         <v>5400</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="9">
         <v>32100</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="9">
         <v>5350</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="9">
         <v>20600</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="9">
         <v>6866.666666666667</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="9">
         <v>0</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="9">
         <v>5000</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="9">
         <v>5000</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="9">
         <v>15600</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="9">
         <v>15600</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="9">
         <v>11500</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="9">
         <v>3833.3333333333335</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="9">
         <v>2500</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="9">
         <v>2500</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="9">
         <v>9000</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="9">
         <v>4500</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="9">
         <v>23200</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="9">
         <v>4640</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="9">
         <v>16000</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="9">
         <v>5333.333333333333</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="9">
         <v>1600</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="9">
         <v>1600</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="9">
         <v>14400</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="9">
         <v>7200</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="9">
         <v>7200</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="9">
         <v>3600</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="9">
         <v>0</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="9">
         <v>7200</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="9">
         <v>7200</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="9">
         <v>265200</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="9">
         <v>7577.1428571428569</v>
       </c>
     </row>
@@ -17618,13 +11920,13 @@
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <v>5</v>
       </c>
     </row>
@@ -17632,13 +11934,13 @@
       <c r="B6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6">
         <v>4</v>
       </c>
     </row>
@@ -17646,13 +11948,13 @@
       <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
         <v>5</v>
       </c>
     </row>
@@ -17660,13 +11962,13 @@
       <c r="B8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
         <v>6</v>
       </c>
     </row>
@@ -17674,13 +11976,13 @@
       <c r="B9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9">
         <v>10</v>
       </c>
     </row>
@@ -17688,13 +11990,13 @@
       <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10">
         <v>5</v>
       </c>
     </row>
@@ -17702,13 +12004,13 @@
       <c r="B11" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11">
         <v>15</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11">
         <v>20</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11">
         <v>35</v>
       </c>
     </row>
@@ -17767,19 +12069,19 @@
       <c r="B5" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5">
         <v>6</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5">
         <v>13</v>
       </c>
     </row>
@@ -17787,19 +12089,19 @@
       <c r="B6" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6">
         <v>9</v>
       </c>
     </row>
@@ -17807,19 +12109,19 @@
       <c r="B7" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7">
         <v>4</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7">
         <v>13</v>
       </c>
     </row>
@@ -17827,19 +12129,19 @@
       <c r="B8" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>9</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
         <v>7</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8">
         <v>12</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8">
         <v>35</v>
       </c>
     </row>
